--- a/test_image_data.xlsx
+++ b/test_image_data.xlsx
@@ -7,10 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Centroid Data" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Intensity Correlation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Channel Intensity Correlation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Information" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Region Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Centroid Data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Intensity Correlation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Channel Intensity Correlation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IoUs between different Channels" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARI Scores" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster Meta Information" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,62 +443,37 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Area</t>
+          <t>corr_bg</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>intensity_mean-0</t>
+          <t>min_intensity_b</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>intensity_mean-1</t>
+          <t>min_intensity_g</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>intensity_mean-2</t>
+          <t>mean_intensity_b</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>intensity_max-0</t>
+          <t>mean_intensity_g</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>intensity_max-1</t>
+          <t>max_intensity_b</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>intensity_max-2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>intensity_min-0</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>intensity_min-1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>intensity_min-2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>centroid_local-0</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>centroid_local-1</t>
+          <t>max_intensity_g</t>
         </is>
       </c>
     </row>
@@ -503,40 +482,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3058693</v>
+        <v>0.7463255096377031</v>
       </c>
       <c r="C2" t="n">
-        <v>6.731676242107332</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>21.71614509857642</v>
+        <v>31</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>56.13452920403763</v>
       </c>
       <c r="F2" t="n">
-        <v>209</v>
+        <v>57.84850400933677</v>
       </c>
       <c r="G2" t="n">
+        <v>198</v>
+      </c>
+      <c r="H2" t="n">
         <v>255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>901.7146303993242</v>
-      </c>
-      <c r="M2" t="n">
-        <v>928.8654111412947</v>
       </c>
     </row>
     <row r="3">
@@ -544,40 +508,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7252</v>
+        <v>0.8423491396888375</v>
       </c>
       <c r="C3" t="n">
-        <v>48.6438223938224</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>52.84873138444567</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>39.43127962085308</v>
       </c>
       <c r="F3" t="n">
-        <v>117</v>
+        <v>43.99565217391304</v>
       </c>
       <c r="G3" t="n">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>56.54412575841148</v>
-      </c>
-      <c r="M3" t="n">
-        <v>56.69704908990623</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -585,40 +534,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1111</v>
+        <v>0.8241610230635187</v>
       </c>
       <c r="C4" t="n">
-        <v>52.66426642664266</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>53.96939693969397</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>47.364604577385</v>
       </c>
       <c r="F4" t="n">
-        <v>96</v>
+        <v>54.93956529422159</v>
       </c>
       <c r="G4" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10.96759675967597</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30.75787578757876</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -626,40 +560,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9659</v>
+        <v>0.6065526066065052</v>
       </c>
       <c r="C5" t="n">
-        <v>49.11098457397246</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>42.28077440728854</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>39.22059476253884</v>
       </c>
       <c r="F5" t="n">
-        <v>212</v>
+        <v>43.28607142857143</v>
       </c>
       <c r="G5" t="n">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49.40739206957242</v>
-      </c>
-      <c r="M5" t="n">
-        <v>66.22424681644063</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -667,40 +586,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9798</v>
+        <v>0.6431667446551749</v>
       </c>
       <c r="C6" t="n">
-        <v>66.93610941008369</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>57.73076137987344</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>55.04855842185129</v>
       </c>
       <c r="F6" t="n">
-        <v>140</v>
+        <v>37.81124497991968</v>
       </c>
       <c r="G6" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>43.73351704429476</v>
-      </c>
-      <c r="M6" t="n">
-        <v>67.20055113288426</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -708,40 +612,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7377</v>
+        <v>0.8609365103092264</v>
       </c>
       <c r="C7" t="n">
-        <v>72.29876643622069</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>66.34729564863765</v>
+        <v>31</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>51.42430044182621</v>
       </c>
       <c r="F7" t="n">
-        <v>162</v>
+        <v>49.61963281018656</v>
       </c>
       <c r="G7" t="n">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>46.3268266232886</v>
-      </c>
-      <c r="M7" t="n">
-        <v>57.13379422529484</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -749,40 +638,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5466</v>
+        <v>0.9658673669371297</v>
       </c>
       <c r="C8" t="n">
-        <v>58.00475667764361</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>52.53293084522502</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>91.05068790731355</v>
       </c>
       <c r="F8" t="n">
-        <v>122</v>
+        <v>196.3515715948778</v>
       </c>
       <c r="G8" t="n">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11</v>
-      </c>
-      <c r="J8" t="n">
-        <v>12</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>42.02067325283571</v>
-      </c>
-      <c r="M8" t="n">
-        <v>41.98719356019027</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9">
@@ -790,40 +664,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7964</v>
+        <v>0.6897231122106353</v>
       </c>
       <c r="C9" t="n">
-        <v>63.45956805625314</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>43.05763435459568</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>48.26241963763881</v>
       </c>
       <c r="F9" t="n">
-        <v>166</v>
+        <v>40.91747761775009</v>
       </c>
       <c r="G9" t="n">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>18</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>40.79897036664993</v>
-      </c>
-      <c r="M9" t="n">
-        <v>60.45781014565545</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -831,40 +690,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>0.6879398025744987</v>
       </c>
       <c r="C10" t="n">
-        <v>36.16666666666666</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>36.08333333333334</v>
+        <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.18300653594771</v>
       </c>
       <c r="F10" t="n">
-        <v>53</v>
+        <v>39.5</v>
       </c>
       <c r="G10" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>20</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -872,40 +716,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>410</v>
+        <v>0.8510984146491584</v>
       </c>
       <c r="C11" t="n">
-        <v>85.02439024390245</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>67.84878048780487</v>
+        <v>31</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>48.06844444444445</v>
       </c>
       <c r="F11" t="n">
-        <v>142</v>
+        <v>48.49536094138946</v>
       </c>
       <c r="G11" t="n">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>38</v>
-      </c>
-      <c r="J11" t="n">
-        <v>22</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>16.68536585365853</v>
-      </c>
-      <c r="M11" t="n">
-        <v>6.15609756097561</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -913,40 +742,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8372</v>
+        <v>0.7457445775118419</v>
       </c>
       <c r="C12" t="n">
-        <v>54.47909698996656</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>35.0539894887721</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>38.60273972602739</v>
       </c>
       <c r="F12" t="n">
-        <v>157</v>
+        <v>39.94736842105263</v>
       </c>
       <c r="G12" t="n">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>53.56581462016245</v>
-      </c>
-      <c r="M12" t="n">
-        <v>55.51098901098901</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -954,40 +768,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8916</v>
+        <v>0.9274235961709268</v>
       </c>
       <c r="C13" t="n">
-        <v>64.82828622700762</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
-        <v>54.06191117092867</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>40.33333333333334</v>
       </c>
       <c r="F13" t="n">
-        <v>164</v>
+        <v>58.84848484848485</v>
       </c>
       <c r="G13" t="n">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18</v>
-      </c>
-      <c r="J13" t="n">
-        <v>12</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>63.7790489008524</v>
-      </c>
-      <c r="M13" t="n">
-        <v>52.94952893674294</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -995,40 +794,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2001</v>
+        <v>0.869545196244763</v>
       </c>
       <c r="C14" t="n">
-        <v>86.87906046976512</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
-        <v>51.05547226386807</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>52.95876288659794</v>
       </c>
       <c r="F14" t="n">
-        <v>154</v>
+        <v>58.05520504731861</v>
       </c>
       <c r="G14" t="n">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>28</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>26.55822088955522</v>
-      </c>
-      <c r="M14" t="n">
-        <v>21.60919540229885</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -1036,40 +820,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3284</v>
+        <v>0.7360895025274221</v>
       </c>
       <c r="C15" t="n">
-        <v>84.21437271619976</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
-        <v>85.84348355663825</v>
+        <v>31</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>52.72936382754995</v>
       </c>
       <c r="F15" t="n">
-        <v>175</v>
+        <v>41.07386487073648</v>
       </c>
       <c r="G15" t="n">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>26</v>
-      </c>
-      <c r="J15" t="n">
-        <v>19</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>21.17691839220463</v>
-      </c>
-      <c r="M15" t="n">
-        <v>68.14981729598051</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -1077,40 +846,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15299</v>
+        <v>0.8573291248642757</v>
       </c>
       <c r="C16" t="n">
-        <v>63.24217269102556</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>45.31302699522845</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>72.83492822966507</v>
       </c>
       <c r="F16" t="n">
-        <v>158</v>
+        <v>44.81470412432756</v>
       </c>
       <c r="G16" t="n">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>95.37741028825414</v>
-      </c>
-      <c r="M16" t="n">
-        <v>64.29688214916007</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1118,40 +872,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12214</v>
+        <v>0.8838181484212209</v>
       </c>
       <c r="C17" t="n">
-        <v>52.63541837235959</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>42.09579171442607</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>51.09309350542359</v>
       </c>
       <c r="F17" t="n">
-        <v>144</v>
+        <v>56.57536041939711</v>
       </c>
       <c r="G17" t="n">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>63.71630915343049</v>
-      </c>
-      <c r="M17" t="n">
-        <v>60.19665957098412</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18">
@@ -1159,40 +898,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8716</v>
+        <v>0.7085720752863921</v>
       </c>
       <c r="C18" t="n">
-        <v>72.63641578705828</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
-        <v>52.82400183570445</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>51.82586050724638</v>
       </c>
       <c r="F18" t="n">
-        <v>182</v>
+        <v>40.71730966200068</v>
       </c>
       <c r="G18" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>19</v>
-      </c>
-      <c r="J18" t="n">
-        <v>11</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>54.01273519963286</v>
-      </c>
-      <c r="M18" t="n">
-        <v>50.81539697108766</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -1200,40 +924,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2146</v>
+        <v>0.8670531318127066</v>
       </c>
       <c r="C19" t="n">
-        <v>86.21947809878844</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
-        <v>82.22553588070829</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>57.85293318848452</v>
       </c>
       <c r="F19" t="n">
-        <v>187</v>
+        <v>59.45474285714285</v>
       </c>
       <c r="G19" t="n">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>21</v>
-      </c>
-      <c r="J19" t="n">
-        <v>15</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>38.7381174277726</v>
-      </c>
-      <c r="M19" t="n">
-        <v>39.57642124883504</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
@@ -1241,40 +950,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9710</v>
+        <v>0.56989897118425</v>
       </c>
       <c r="C20" t="n">
-        <v>50.9648815653965</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
-        <v>41.24778578784758</v>
+        <v>31</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>51.11535513541134</v>
       </c>
       <c r="F20" t="n">
-        <v>160</v>
+        <v>38.34994239631337</v>
       </c>
       <c r="G20" t="n">
         <v>117</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>47.50823892893924</v>
-      </c>
-      <c r="M20" t="n">
-        <v>61.5005149330587</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -1282,40 +976,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10915</v>
+        <v>0.6403720343771505</v>
       </c>
       <c r="C21" t="n">
-        <v>56.71708657810353</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
-        <v>50.57901969766377</v>
+        <v>31</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>51.89869320225392</v>
       </c>
       <c r="F21" t="n">
-        <v>147</v>
+        <v>38.03811841038119</v>
       </c>
       <c r="G21" t="n">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11</v>
-      </c>
-      <c r="J21" t="n">
-        <v>8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>57.80907008703619</v>
-      </c>
-      <c r="M21" t="n">
-        <v>66.64086120018324</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -1323,40 +1002,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6355</v>
+        <v>0.8336632889268399</v>
       </c>
       <c r="C22" t="n">
-        <v>53.75247836349331</v>
+        <v>61</v>
       </c>
       <c r="D22" t="n">
-        <v>47.83225806451613</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.1497326203209</v>
       </c>
       <c r="F22" t="n">
-        <v>123</v>
+        <v>41.08122743682311</v>
       </c>
       <c r="G22" t="n">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>13</v>
-      </c>
-      <c r="J22" t="n">
-        <v>10</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>39.87332808811959</v>
-      </c>
-      <c r="M22" t="n">
-        <v>60.71046420141621</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -1364,40 +1028,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7335</v>
+        <v>0.6848155256855086</v>
       </c>
       <c r="C23" t="n">
-        <v>63.20790729379686</v>
+        <v>31</v>
       </c>
       <c r="D23" t="n">
-        <v>53.27416496250852</v>
+        <v>31</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>57.40839575530587</v>
       </c>
       <c r="F23" t="n">
-        <v>146</v>
+        <v>38.86617806731813</v>
       </c>
       <c r="G23" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>42.09161554192229</v>
-      </c>
-      <c r="M23" t="n">
-        <v>55.94342194955692</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -1405,40 +1054,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9712</v>
+        <v>0.7551943688154754</v>
       </c>
       <c r="C24" t="n">
-        <v>75.05580724876441</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
-        <v>50.78943574958814</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>52.42717943402094</v>
       </c>
       <c r="F24" t="n">
-        <v>179</v>
+        <v>40.81915068043941</v>
       </c>
       <c r="G24" t="n">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>14</v>
-      </c>
-      <c r="J24" t="n">
-        <v>11</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>51.21365321252059</v>
-      </c>
-      <c r="M24" t="n">
-        <v>54.6579489291598</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -1446,40 +1080,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6292</v>
+        <v>0.7322019994042437</v>
       </c>
       <c r="C25" t="n">
-        <v>55.26207883026065</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
-        <v>52.06468531468531</v>
+        <v>31</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>48.58926061287602</v>
       </c>
       <c r="F25" t="n">
-        <v>146</v>
+        <v>42.13254637436762</v>
       </c>
       <c r="G25" t="n">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9</v>
-      </c>
-      <c r="J25" t="n">
-        <v>10</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>43.52352193261284</v>
-      </c>
-      <c r="M25" t="n">
-        <v>50.41163382072473</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -1487,40 +1106,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10974</v>
+        <v>0.7008109205010198</v>
       </c>
       <c r="C26" t="n">
-        <v>63.48113723346091</v>
+        <v>31</v>
       </c>
       <c r="D26" t="n">
-        <v>43.68407144158921</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>47.74649840521425</v>
       </c>
       <c r="F26" t="n">
-        <v>165</v>
+        <v>39.8234588630367</v>
       </c>
       <c r="G26" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>16</v>
-      </c>
-      <c r="J26" t="n">
-        <v>7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>54.54364862402041</v>
-      </c>
-      <c r="M26" t="n">
-        <v>64.95780936759614</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -1528,40 +1132,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10771</v>
+        <v>0.8515293596725816</v>
       </c>
       <c r="C27" t="n">
-        <v>55.14938260142976</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n">
-        <v>45.42911521678582</v>
+        <v>31</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>51.90783138449445</v>
       </c>
       <c r="F27" t="n">
-        <v>136</v>
+        <v>50.87762335603022</v>
       </c>
       <c r="G27" t="n">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>49.19431807631604</v>
-      </c>
-      <c r="M27" t="n">
-        <v>63.96397734657878</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
@@ -1569,40 +1158,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10989</v>
+        <v>0.845032108551773</v>
       </c>
       <c r="C28" t="n">
-        <v>46.6936936936937</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
-        <v>37.78751478751479</v>
+        <v>31</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>53.39173101673101</v>
       </c>
       <c r="F28" t="n">
-        <v>131</v>
+        <v>47.38921952048971</v>
       </c>
       <c r="G28" t="n">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>75.66102466102465</v>
-      </c>
-      <c r="M28" t="n">
-        <v>47.52152152152152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -1610,40 +1184,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11140</v>
+        <v>0.7323710213521549</v>
       </c>
       <c r="C29" t="n">
-        <v>48.49730700179533</v>
+        <v>31</v>
       </c>
       <c r="D29" t="n">
-        <v>37.93563734290844</v>
+        <v>31</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>54.3219097140156</v>
       </c>
       <c r="F29" t="n">
+        <v>39.88319473989557</v>
+      </c>
+      <c r="G29" t="n">
         <v>174</v>
       </c>
-      <c r="G29" t="n">
-        <v>101</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>52.39021543985638</v>
-      </c>
-      <c r="M29" t="n">
-        <v>61.44533213644524</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -1651,40 +1210,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3665</v>
+        <v>0.8002731986687305</v>
       </c>
       <c r="C30" t="n">
-        <v>45.10286493860846</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
-        <v>62.12824010914052</v>
+        <v>31</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>55.73522111913358</v>
       </c>
       <c r="F30" t="n">
-        <v>88</v>
+        <v>43.18504120665526</v>
       </c>
       <c r="G30" t="n">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>15</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>51.69604365620737</v>
-      </c>
-      <c r="M30" t="n">
-        <v>18.51323328785812</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1692,40 +1236,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11321</v>
+        <v>0.7876882058630108</v>
       </c>
       <c r="C31" t="n">
-        <v>68.12569560992846</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
-        <v>64.36648705944704</v>
+        <v>31</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>53.23144319747982</v>
       </c>
       <c r="F31" t="n">
-        <v>163</v>
+        <v>43.2808575415451</v>
       </c>
       <c r="G31" t="n">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-      <c r="J31" t="n">
-        <v>8</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>50.10211112092571</v>
-      </c>
-      <c r="M31" t="n">
-        <v>74.78031975973853</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -1733,40 +1262,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9226</v>
+        <v>0.8297369360409483</v>
       </c>
       <c r="C32" t="n">
-        <v>43.09852590505094</v>
+        <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>44.66204205506178</v>
+        <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>51.04234671371857</v>
       </c>
       <c r="F32" t="n">
-        <v>111</v>
+        <v>49.7086624897848</v>
       </c>
       <c r="G32" t="n">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>10</v>
-      </c>
-      <c r="J32" t="n">
-        <v>8</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>68.15304574029915</v>
-      </c>
-      <c r="M32" t="n">
-        <v>60.07717320615652</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33">
@@ -1774,40 +1288,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2323</v>
+        <v>0.7819050709133555</v>
       </c>
       <c r="C33" t="n">
-        <v>61.68833405079639</v>
+        <v>31</v>
       </c>
       <c r="D33" t="n">
-        <v>172.3491175204477</v>
+        <v>31</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>53.30810488676996</v>
       </c>
       <c r="F33" t="n">
-        <v>118</v>
+        <v>48.73627801234167</v>
       </c>
       <c r="G33" t="n">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>18</v>
-      </c>
-      <c r="J33" t="n">
-        <v>39</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>19.57081360309944</v>
-      </c>
-      <c r="M33" t="n">
-        <v>33.49289711579853</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -1815,40 +1314,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9525</v>
+        <v>0.7348697746477887</v>
       </c>
       <c r="C34" t="n">
-        <v>47.78855643044619</v>
+        <v>31</v>
       </c>
       <c r="D34" t="n">
-        <v>43.06498687664042</v>
+        <v>31</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>48.09248611246467</v>
       </c>
       <c r="F34" t="n">
-        <v>152</v>
+        <v>40.0454364816532</v>
       </c>
       <c r="G34" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>10</v>
-      </c>
-      <c r="J34" t="n">
-        <v>6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>57.28083989501312</v>
-      </c>
-      <c r="M34" t="n">
-        <v>45.07601049868767</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
@@ -1856,40 +1340,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7188</v>
+        <v>0.9384313417790608</v>
       </c>
       <c r="C35" t="n">
-        <v>44.48427935447969</v>
+        <v>31</v>
       </c>
       <c r="D35" t="n">
-        <v>53.56928213689483</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>71.34397626112759</v>
       </c>
       <c r="F35" t="n">
-        <v>114</v>
+        <v>107.1864724704844</v>
       </c>
       <c r="G35" t="n">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>10</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>48.89663327768503</v>
-      </c>
-      <c r="M35" t="n">
-        <v>63.29465776293823</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36">
@@ -1897,40 +1366,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0.8801888548430654</v>
       </c>
       <c r="C36" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D36" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>55.29280397022332</v>
       </c>
       <c r="F36" t="n">
-        <v>44</v>
+        <v>57.18484848484849</v>
       </c>
       <c r="G36" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>44</v>
-      </c>
-      <c r="J36" t="n">
-        <v>50</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -1938,40 +1392,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8836</v>
+        <v>0.7901150579810183</v>
       </c>
       <c r="C37" t="n">
-        <v>53.56224535989136</v>
+        <v>31</v>
       </c>
       <c r="D37" t="n">
-        <v>76.09585785423269</v>
+        <v>31</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>45.5647823911956</v>
       </c>
       <c r="F37" t="n">
-        <v>138</v>
+        <v>46.22292642601268</v>
       </c>
       <c r="G37" t="n">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11</v>
-      </c>
-      <c r="J37" t="n">
-        <v>12</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>48.10117700316886</v>
-      </c>
-      <c r="M37" t="n">
-        <v>57.23200543232232</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
@@ -1979,40 +1418,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1932</v>
+        <v>0.9298476383644222</v>
       </c>
       <c r="C38" t="n">
-        <v>82.35817805383023</v>
+        <v>31</v>
       </c>
       <c r="D38" t="n">
-        <v>241.4311594202898</v>
+        <v>31</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>56.06825938566553</v>
       </c>
       <c r="F38" t="n">
-        <v>167</v>
+        <v>94.31937984496125</v>
       </c>
       <c r="G38" t="n">
+        <v>128</v>
+      </c>
+      <c r="H38" t="n">
         <v>255</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>18</v>
-      </c>
-      <c r="J38" t="n">
-        <v>72</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>26.8167701863354</v>
-      </c>
-      <c r="M38" t="n">
-        <v>20.38302277432712</v>
       </c>
     </row>
     <row r="39">
@@ -2020,40 +1444,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>779</v>
+        <v>0.9734866457969734</v>
       </c>
       <c r="C39" t="n">
-        <v>48.57766367137356</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
-        <v>79.21822849807445</v>
+        <v>31</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>100.7354472314245</v>
       </c>
       <c r="F39" t="n">
-        <v>90</v>
+        <v>182.0157822506862</v>
       </c>
       <c r="G39" t="n">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>14</v>
-      </c>
-      <c r="J39" t="n">
-        <v>14</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>13.87291399229782</v>
-      </c>
-      <c r="M39" t="n">
-        <v>12.16431322207959</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40">
@@ -2061,40 +1470,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8941</v>
+        <v>0.7915115680480165</v>
       </c>
       <c r="C40" t="n">
-        <v>48.74890951795101</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
-        <v>44.60407113298289</v>
+        <v>31</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>52.90294695481336</v>
       </c>
       <c r="F40" t="n">
-        <v>124</v>
+        <v>40.6493432324386</v>
       </c>
       <c r="G40" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>9</v>
-      </c>
-      <c r="J40" t="n">
-        <v>8</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>68.56246504865227</v>
-      </c>
-      <c r="M40" t="n">
-        <v>43.26249860194609</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
@@ -2102,40 +1496,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8392</v>
+        <v>0.7100858152875535</v>
       </c>
       <c r="C41" t="n">
-        <v>44.01275023832221</v>
+        <v>31</v>
       </c>
       <c r="D41" t="n">
-        <v>48.86844613918017</v>
+        <v>31</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>45.85079575596817</v>
       </c>
       <c r="F41" t="n">
-        <v>120</v>
+        <v>40.7702612190221</v>
       </c>
       <c r="G41" t="n">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>6</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>71.97235462345091</v>
-      </c>
-      <c r="M41" t="n">
-        <v>33.56041468064824</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42">
@@ -2143,40 +1522,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9440</v>
+        <v>0.7962616283643463</v>
       </c>
       <c r="C42" t="n">
-        <v>54.1010593220339</v>
+        <v>31</v>
       </c>
       <c r="D42" t="n">
-        <v>68.54385593220339</v>
+        <v>31</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>55.59916446789798</v>
       </c>
       <c r="F42" t="n">
-        <v>178</v>
+        <v>41.63922178988327</v>
       </c>
       <c r="G42" t="n">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>11</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>65.54692796610169</v>
-      </c>
-      <c r="M42" t="n">
-        <v>49.31906779661017</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -2184,40 +1548,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12036</v>
+        <v>0.8678540017617971</v>
       </c>
       <c r="C43" t="n">
-        <v>48.29901960784314</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
-        <v>66.88102359587903</v>
+        <v>31</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>61.90179558011049</v>
       </c>
       <c r="F43" t="n">
-        <v>105</v>
+        <v>47.079932829555</v>
       </c>
       <c r="G43" t="n">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11</v>
-      </c>
-      <c r="J43" t="n">
-        <v>11</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>62.93170488534397</v>
-      </c>
-      <c r="M43" t="n">
-        <v>59.38567630442007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
@@ -2225,40 +1574,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16573</v>
+        <v>0.7737913656262161</v>
       </c>
       <c r="C44" t="n">
-        <v>49.27381886200447</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
-        <v>60.57448862607856</v>
+        <v>31</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>49.09597224898825</v>
       </c>
       <c r="F44" t="n">
-        <v>162</v>
+        <v>41.38431576213971</v>
       </c>
       <c r="G44" t="n">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>9</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>143.264043926869</v>
-      </c>
-      <c r="M44" t="n">
-        <v>62.58317745731009</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45">
@@ -2266,40 +1600,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4925</v>
+        <v>0.7908321518151864</v>
       </c>
       <c r="C45" t="n">
-        <v>44.56548223350254</v>
+        <v>31</v>
       </c>
       <c r="D45" t="n">
-        <v>75.14294416243655</v>
+        <v>31</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>46.80859316723855</v>
       </c>
       <c r="F45" t="n">
-        <v>107</v>
+        <v>44.1140291426635</v>
       </c>
       <c r="G45" t="n">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>11</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>64.62395939086295</v>
-      </c>
-      <c r="M45" t="n">
-        <v>19.86761421319797</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
@@ -2307,40 +1626,103 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>246</v>
+        <v>0.7639996694934363</v>
       </c>
       <c r="C46" t="n">
-        <v>48.60569105691057</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
-        <v>78.0691056910569</v>
+        <v>31</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>50.09098236775819</v>
       </c>
       <c r="F46" t="n">
-        <v>96</v>
+        <v>42.57576152043739</v>
       </c>
       <c r="G46" t="n">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>17</v>
-      </c>
-      <c r="J46" t="n">
-        <v>37</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.630081300813008</v>
-      </c>
-      <c r="M46" t="n">
-        <v>15.39024390243902</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7690616869244806</v>
+      </c>
+      <c r="C47" t="n">
+        <v>31</v>
+      </c>
+      <c r="D47" t="n">
+        <v>31</v>
+      </c>
+      <c r="E47" t="n">
+        <v>53.06906180193597</v>
+      </c>
+      <c r="F47" t="n">
+        <v>41.75550191679682</v>
+      </c>
+      <c r="G47" t="n">
+        <v>153</v>
+      </c>
+      <c r="H47" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7735059900062742</v>
+      </c>
+      <c r="C48" t="n">
+        <v>31</v>
+      </c>
+      <c r="D48" t="n">
+        <v>31</v>
+      </c>
+      <c r="E48" t="n">
+        <v>52.88583948339483</v>
+      </c>
+      <c r="F48" t="n">
+        <v>40.4210713018801</v>
+      </c>
+      <c r="G48" t="n">
+        <v>103</v>
+      </c>
+      <c r="H48" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7956995644459139</v>
+      </c>
+      <c r="C49" t="n">
+        <v>31</v>
+      </c>
+      <c r="D49" t="n">
+        <v>31</v>
+      </c>
+      <c r="E49" t="n">
+        <v>47.6608</v>
+      </c>
+      <c r="F49" t="n">
+        <v>42.50526315789474</v>
+      </c>
+      <c r="G49" t="n">
+        <v>83</v>
+      </c>
+      <c r="H49" t="n">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2354,7 +1736,715 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>centroid_local-0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>centroid_local-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3069856</v>
+      </c>
+      <c r="C2" t="n">
+        <v>903.2696090630961</v>
+      </c>
+      <c r="D2" t="n">
+        <v>924.5753999536134</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>251</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.195219123505976</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.34262948207171</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6250</v>
+      </c>
+      <c r="C4" t="n">
+        <v>38.94432</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42.39088</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4067</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45.91443324317679</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60.86009343496435</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2450</v>
+      </c>
+      <c r="C6" t="n">
+        <v>45.31795918367347</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.31632653061224</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7842</v>
+      </c>
+      <c r="C7" t="n">
+        <v>48.15072685539403</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55.92144861004846</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4301</v>
+      </c>
+      <c r="C8" t="n">
+        <v>51.6721692629621</v>
+      </c>
+      <c r="D8" t="n">
+        <v>51.39572192513369</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5133</v>
+      </c>
+      <c r="C9" t="n">
+        <v>52.43152152737191</v>
+      </c>
+      <c r="D9" t="n">
+        <v>41.46054938632378</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>613</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.53670473083197</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.98531810766721</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5187</v>
+      </c>
+      <c r="C11" t="n">
+        <v>38.59244264507422</v>
+      </c>
+      <c r="D11" t="n">
+        <v>43.14921920185078</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>88</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.909090909090909</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>721</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.82662968099861</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.07766990291262</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9985</v>
+      </c>
+      <c r="C15" t="n">
+        <v>63.42083124687031</v>
+      </c>
+      <c r="D15" t="n">
+        <v>84.36254381572358</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2260</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26.00796460176991</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24.10884955752212</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8507</v>
+      </c>
+      <c r="C17" t="n">
+        <v>64.57023627600799</v>
+      </c>
+      <c r="D17" t="n">
+        <v>59.07770071705654</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5401</v>
+      </c>
+      <c r="C18" t="n">
+        <v>44.54508424365858</v>
+      </c>
+      <c r="D18" t="n">
+        <v>42.24199222366229</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9336</v>
+      </c>
+      <c r="C19" t="n">
+        <v>56.01778063410454</v>
+      </c>
+      <c r="D19" t="n">
+        <v>74.30516281062553</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9985</v>
+      </c>
+      <c r="C20" t="n">
+        <v>67.56054081121682</v>
+      </c>
+      <c r="D20" t="n">
+        <v>58.65197796695043</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9747</v>
+      </c>
+      <c r="C21" t="n">
+        <v>66.6088027085257</v>
+      </c>
+      <c r="D21" t="n">
+        <v>41.95372935262132</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>748</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10.34224598930481</v>
+      </c>
+      <c r="D22" t="n">
+        <v>29.98529411764706</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8597</v>
+      </c>
+      <c r="C23" t="n">
+        <v>75.49621961149238</v>
+      </c>
+      <c r="D23" t="n">
+        <v>133.3992090264045</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11325</v>
+      </c>
+      <c r="C24" t="n">
+        <v>65.83108167770419</v>
+      </c>
+      <c r="D24" t="n">
+        <v>54.37086092715231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5128</v>
+      </c>
+      <c r="C25" t="n">
+        <v>41.58989859594384</v>
+      </c>
+      <c r="D25" t="n">
+        <v>42.46548361934477</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8911</v>
+      </c>
+      <c r="C26" t="n">
+        <v>46.39041633935585</v>
+      </c>
+      <c r="D26" t="n">
+        <v>77.18168555717652</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12220</v>
+      </c>
+      <c r="C27" t="n">
+        <v>51.56227495908347</v>
+      </c>
+      <c r="D27" t="n">
+        <v>68.4968085106383</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7078</v>
+      </c>
+      <c r="C28" t="n">
+        <v>66.19059056230573</v>
+      </c>
+      <c r="D28" t="n">
+        <v>33.15541113308844</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10316</v>
+      </c>
+      <c r="C29" t="n">
+        <v>60.01589763474215</v>
+      </c>
+      <c r="D29" t="n">
+        <v>64.25445909267158</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10785</v>
+      </c>
+      <c r="C30" t="n">
+        <v>69.21752433936022</v>
+      </c>
+      <c r="D30" t="n">
+        <v>47.7878535002318</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12138</v>
+      </c>
+      <c r="C31" t="n">
+        <v>67.63766683143845</v>
+      </c>
+      <c r="D31" t="n">
+        <v>87.67943648047455</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8543</v>
+      </c>
+      <c r="C32" t="n">
+        <v>57.04904600257521</v>
+      </c>
+      <c r="D32" t="n">
+        <v>44.52955636193375</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11676</v>
+      </c>
+      <c r="C33" t="n">
+        <v>73.00479616306954</v>
+      </c>
+      <c r="D33" t="n">
+        <v>53.0172147995889</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12655</v>
+      </c>
+      <c r="C34" t="n">
+        <v>75.48455156064797</v>
+      </c>
+      <c r="D34" t="n">
+        <v>70.35725009877518</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9117</v>
+      </c>
+      <c r="C35" t="n">
+        <v>57.31841614566195</v>
+      </c>
+      <c r="D35" t="n">
+        <v>50.36031589338598</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>680</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34.01764705882353</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6.885294117647059</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5180</v>
+      </c>
+      <c r="C37" t="n">
+        <v>58.62027027027027</v>
+      </c>
+      <c r="D37" t="n">
+        <v>23.65656370656371</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8431</v>
+      </c>
+      <c r="C38" t="n">
+        <v>44.49780571699679</v>
+      </c>
+      <c r="D38" t="n">
+        <v>54.01447040683193</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4387</v>
+      </c>
+      <c r="C39" t="n">
+        <v>59.772281741509</v>
+      </c>
+      <c r="D39" t="n">
+        <v>37.72395714611352</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2891</v>
+      </c>
+      <c r="C40" t="n">
+        <v>60.30093393289519</v>
+      </c>
+      <c r="D40" t="n">
+        <v>29.1086129367001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2351</v>
+      </c>
+      <c r="C41" t="n">
+        <v>43.66780093577201</v>
+      </c>
+      <c r="D41" t="n">
+        <v>42.58358145470013</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10813</v>
+      </c>
+      <c r="C42" t="n">
+        <v>47.85018033848146</v>
+      </c>
+      <c r="D42" t="n">
+        <v>64.65578470359752</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>8202</v>
+      </c>
+      <c r="C43" t="n">
+        <v>43.67373811265545</v>
+      </c>
+      <c r="D43" t="n">
+        <v>64.89502560351134</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C44" t="n">
+        <v>34.95854570166497</v>
+      </c>
+      <c r="D44" t="n">
+        <v>48.16207951070336</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8211</v>
+      </c>
+      <c r="C45" t="n">
+        <v>38.2675678967239</v>
+      </c>
+      <c r="D45" t="n">
+        <v>69.55985872609914</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>11975</v>
+      </c>
+      <c r="C46" t="n">
+        <v>77.59916492693111</v>
+      </c>
+      <c r="D46" t="n">
+        <v>55.72367432150313</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12062</v>
+      </c>
+      <c r="C47" t="n">
+        <v>59.71696236113414</v>
+      </c>
+      <c r="D47" t="n">
+        <v>63.12211905156691</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5174</v>
+      </c>
+      <c r="C48" t="n">
+        <v>29.27386934673367</v>
+      </c>
+      <c r="D48" t="n">
+        <v>56.4814456899884</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>751</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5.55659121171771</v>
+      </c>
+      <c r="D49" t="n">
+        <v>40.28229027962716</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2369,22 +2459,16 @@
       <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>49.49122901684765</v>
+        <v>49.51425729882216</v>
       </c>
       <c r="C2" t="n">
-        <v>44.42836127316068</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>41.20395033516852</v>
       </c>
     </row>
     <row r="3">
@@ -2392,13 +2476,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>82.35817805383023</v>
+        <v>95.89306756936904</v>
       </c>
       <c r="C3" t="n">
-        <v>241.4311594202899</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+        <v>189.183676922782</v>
       </c>
     </row>
     <row r="4">
@@ -2406,13 +2487,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>75.03875359468326</v>
+        <v>53.66063622421637</v>
       </c>
       <c r="C4" t="n">
-        <v>62.39702999960976</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+        <v>52.64187500299035</v>
       </c>
     </row>
     <row r="5">
@@ -2420,13 +2498,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>61.68833405079639</v>
+        <v>63.70611782339656</v>
       </c>
       <c r="C5" t="n">
-        <v>172.3491175204477</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+        <v>100.7529261577228</v>
       </c>
     </row>
     <row r="6">
@@ -2434,13 +2509,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49.01098063152099</v>
+        <v>105.1497326203209</v>
       </c>
       <c r="C6" t="n">
-        <v>70.83171805863776</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+        <v>41.08122743682311</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2520,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_intensity_b</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>mean_intensity_g</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>mean_intensity_b</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6523121585480812</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>mean_intensity_g</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6523121585480812</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2465,70 +2594,80 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>intensity_mean-0</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>intensity_mean-1</t>
+          <t>green</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>intensity_mean-2</t>
+          <t>red</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>intensity_mean-0</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.402252602326713</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>0.6418334401647909</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.02411876387728391</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>intensity_mean-1</t>
+          <t>green</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.402252602326713</v>
+        <v>0.6418334401647909</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0.4458777331919267</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>intensity_mean-2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.02411876387728391</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4458777331919267</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2539,57 +2678,291 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>IoU_bg</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>IoU_br</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>IoU_rg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.1243067213566711</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7804189432456681</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>0.870233517178566</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.228582452056874</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ARI Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1255543299642077</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2505510400881664</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3134609532366281</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4323587427040346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4796041941578949</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6093032594873168</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5965597173812552</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.402210175145955</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3809108966094017</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3873129833186517</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3766369607966194</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.368074946945158</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.3361660985956443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_intensity_b</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>mean_intensity_g</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_labels</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7804189432456681</v>
-      </c>
-      <c r="C3" t="n">
+          <t>cluster_labels</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.15484021012345</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.973905998921779</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>6.848158992238507</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.1369338589397</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.234193269741797</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.041459019508259</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10.80156299012501</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.098408449662827</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
